--- a/biology/Médecine/Recommandation_temporaire_d’utilisation/Recommandation_temporaire_d’utilisation.xlsx
+++ b/biology/Médecine/Recommandation_temporaire_d’utilisation/Recommandation_temporaire_d’utilisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Une recommandation temporaire d’utilisation (RTU) était un dispositif d’encadrement transitoire (maximum trois ans, renouvelable) qui autorisait, en France, l'utilisation de certains médicaments en dehors de leur autorisation de mise sur le marché (AMM). Les RTU ont été créées en 2014 et ont depuis 2021 été remplacées par les autorisation d'accès compassionnel (AAC)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une recommandation temporaire d’utilisation (RTU) était un dispositif d’encadrement transitoire (maximum trois ans, renouvelable) qui autorisait, en France, l'utilisation de certains médicaments en dehors de leur autorisation de mise sur le marché (AMM). Les RTU ont été créées en 2014 et ont depuis 2021 été remplacées par les autorisation d'accès compassionnel (AAC).
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Cadre réglementaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un médicament doit répondre à deux types de critère :
 La sécurité d’emploi, assurée par un rapport bénéfices/risques positif lors de son utilisation dans une indication considérée. Ce rapport positif est à la base de l'AMM.
 Le bon usage repose sur le respect de son AMM lors des prescriptions.
 L'Agence européenne des médicaments et l’Agence nationale de sécurité du médicament et des produits de santé (ANSM) en France ont la responsabilité de définir et d’autoriser ces usages.
 Cependant, certains médicaments sont prescrits en dehors de l’AMM, soit pour répondre à un besoin de santé publique non assuré dans le cadre d’une AMM existante, soit pour assurer l’accès du médicament à certains patients dont les pathologies ne sont pas ciblées dans le dossier d’AMM.
-La loi du 29 décembre 2011 relative au renforcement de la sécurité sanitaire du médicament et des produits de santé[2] introduit donc la possibilité d’encadrer des utilisations en dehors du cadre de l’AMM par ces recommandations temporaires d’utilisation (RTU) pour des médicaments bénéficiant déjà d’une AMM en France.
+La loi du 29 décembre 2011 relative au renforcement de la sécurité sanitaire du médicament et des produits de santé introduit donc la possibilité d’encadrer des utilisations en dehors du cadre de l’AMM par ces recommandations temporaires d’utilisation (RTU) pour des médicaments bénéficiant déjà d’une AMM en France.
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Application</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les RTU s’appliquent à l’ensemble des médicaments prescrits en ville comme à l’hôpital et prévoient l’obligation d’un suivi des patients qui doit être assuré par le laboratoire pharmaceutique concerné.
 Une RTU est élaborée par l’ANSM lorsque les deux conditions suivantes sont remplies :
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -580,7 +596,9 @@
           <t>Identification du besoin d’une RTU</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>L’ANSM peut s’autosaisir pour élaborer une RTU lorsqu’elle identifie un besoin thérapeutique non couvert et lorsqu’une situation non conforme à l’AMM est identifiée.
 Toute prescription d’une spécialité non conforme à son AMM peut également être signalée à l’ANSM par :
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Instruction d’une RTU</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Lorsqu’elle décide d’engager la procédure d’élaboration d’une RTU, l’ANSM procède en deux étapes successives[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Lorsqu’elle décide d’engager la procédure d’élaboration d’une RTU, l’ANSM procède en deux étapes successives :
 la collecte des informations nécessaires à l’instruction ;
 l’expertise scientifique de ces informations.</t>
         </is>
@@ -633,7 +653,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -651,7 +671,9 @@
           <t>Protocole de suivi des patients</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La RTU comporte en annexe un protocole définissant les modalités de recueil des données et de suivi des patients, portant sur les données d’efficacité, de sécurité et les conditions réelles d’utilisation du produit.
 Le suivi doit comporter :
@@ -673,7 +695,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Recommandation_temporaire_d%E2%80%99utilisation</t>
+          <t>Recommandation_temporaire_d’utilisation</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -691,9 +713,11 @@
           <t>Exemples de RTU</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, en France, les produits suivants font l'objet d'une RTU[4] :
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, en France, les produits suivants font l'objet d'une RTU :
 Le bévacizumab : le 30 décembre 2014, dans le cadre de la dégénérescence maculaire liée à l'âge (DMLA)
 Le baclofène, dans le cadre du sevrage alcoolique.
 Le tocilizumab depuis le 7 avril 2014.
